--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_s.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_s.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.77965030670166</v>
+        <v>8.292723989486694</v>
       </c>
       <c r="C2">
-        <v>1.555731478091189</v>
+        <v>1.87293480049563</v>
       </c>
       <c r="D2">
-        <v>2.796746301651001</v>
+        <v>2.791859912872314</v>
       </c>
       <c r="E2">
-        <v>0.3426991621998532</v>
+        <v>0.9078689941371227</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.80760984420776</v>
+        <v>18.47468638420105</v>
       </c>
       <c r="C3">
-        <v>0.5023323095206004</v>
+        <v>0.5027682203701473</v>
       </c>
       <c r="D3">
-        <v>2.976637697219849</v>
+        <v>4.10126223564148</v>
       </c>
       <c r="E3">
-        <v>1.05858839847253</v>
+        <v>0.3871261208596769</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>26.09661226272583</v>
+        <v>42.63272905349731</v>
       </c>
       <c r="C4">
-        <v>0.1246463909819042</v>
+        <v>0.8078466219151097</v>
       </c>
       <c r="D4">
-        <v>3.041043424606323</v>
+        <v>3.781829500198364</v>
       </c>
       <c r="E4">
-        <v>0.6417611274140461</v>
+        <v>0.6473091491137438</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.00434317588806</v>
+        <v>16.95946254730224</v>
       </c>
       <c r="C5">
-        <v>1.495917965926839</v>
+        <v>2.492827693857736</v>
       </c>
       <c r="D5">
-        <v>2.956735134124756</v>
+        <v>3.828426122665405</v>
       </c>
       <c r="E5">
-        <v>0.9787162032197901</v>
+        <v>1.057566975409586</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.16350836753845</v>
+        <v>28.53286752700806</v>
       </c>
       <c r="C6">
-        <v>1.224149957739354</v>
+        <v>1.314675465869675</v>
       </c>
       <c r="D6">
-        <v>3.511582899093628</v>
+        <v>3.883520603179932</v>
       </c>
       <c r="E6">
-        <v>0.5763736351002192</v>
+        <v>0.5506256412322565</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>35.73562803268432</v>
+        <v>57.77969131469727</v>
       </c>
       <c r="C7">
-        <v>0.4791054484878411</v>
+        <v>0.9822118852937446</v>
       </c>
       <c r="D7">
-        <v>3.52427773475647</v>
+        <v>5.015465831756591</v>
       </c>
       <c r="E7">
-        <v>0.3917359514192838</v>
+        <v>0.2056920726232993</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.29305067062378</v>
+        <v>21.67217493057251</v>
       </c>
       <c r="C8">
-        <v>1.845843234973737</v>
+        <v>2.257383302311903</v>
       </c>
       <c r="D8">
-        <v>3.268917512893677</v>
+        <v>4.20953049659729</v>
       </c>
       <c r="E8">
-        <v>0.6267666174885222</v>
+        <v>0.5870735445981612</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.76275458335876</v>
+        <v>35.52814688682556</v>
       </c>
       <c r="C9">
-        <v>0.9215380366178524</v>
+        <v>1.018315375946362</v>
       </c>
       <c r="D9">
-        <v>4.283322811126709</v>
+        <v>4.687737083435058</v>
       </c>
       <c r="E9">
-        <v>0.4171632575346002</v>
+        <v>0.7187032475651315</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>44.19975576400757</v>
+        <v>70.16910834312439</v>
       </c>
       <c r="C10">
-        <v>1.131348707368593</v>
+        <v>2.615529237204982</v>
       </c>
       <c r="D10">
-        <v>3.663105344772339</v>
+        <v>5.108002376556397</v>
       </c>
       <c r="E10">
-        <v>0.7321074467835075</v>
+        <v>0.9452900962556698</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.50041651725769</v>
+        <v>19.80463466644287</v>
       </c>
       <c r="C11">
-        <v>1.007028309491974</v>
+        <v>0.644144880920594</v>
       </c>
       <c r="D11">
-        <v>3.862467288970947</v>
+        <v>4.582025003433228</v>
       </c>
       <c r="E11">
-        <v>1.022890874109509</v>
+        <v>0.3268897584591653</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51747007369995</v>
+        <v>28.31608228683472</v>
       </c>
       <c r="C12">
-        <v>0.8690813085163773</v>
+        <v>1.101877534129151</v>
       </c>
       <c r="D12">
-        <v>3.185240411758423</v>
+        <v>4.189735698699951</v>
       </c>
       <c r="E12">
-        <v>0.3449656335620918</v>
+        <v>0.4970800275242513</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>36.41287875175476</v>
+        <v>57.41532711982727</v>
       </c>
       <c r="C13">
-        <v>0.5403327788888865</v>
+        <v>2.163494315537992</v>
       </c>
       <c r="D13">
-        <v>4.13399772644043</v>
+        <v>4.720461082458496</v>
       </c>
       <c r="E13">
-        <v>0.5912730865299017</v>
+        <v>1.080770959101612</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.33067197799683</v>
+        <v>23.14228148460388</v>
       </c>
       <c r="C14">
-        <v>1.445912494905947</v>
+        <v>2.118416270729454</v>
       </c>
       <c r="D14">
-        <v>3.527536249160767</v>
+        <v>3.685586452484131</v>
       </c>
       <c r="E14">
-        <v>0.5092982549470099</v>
+        <v>0.9988662596227392</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.1549768447876</v>
+        <v>37.30118517875671</v>
       </c>
       <c r="C15">
-        <v>0.7851001271977832</v>
+        <v>1.275702860875257</v>
       </c>
       <c r="D15">
-        <v>4.422553586959839</v>
+        <v>5.544759464263916</v>
       </c>
       <c r="E15">
-        <v>0.5252581699118544</v>
+        <v>0.4127682767979753</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>50.32739171981812</v>
+        <v>78.70221238136291</v>
       </c>
       <c r="C16">
-        <v>1.349113604390475</v>
+        <v>0.8509752566710985</v>
       </c>
       <c r="D16">
-        <v>4.115270948410034</v>
+        <v>5.06337456703186</v>
       </c>
       <c r="E16">
-        <v>0.5597613432608063</v>
+        <v>0.2945894297187434</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.17918529510498</v>
+        <v>27.90408596992493</v>
       </c>
       <c r="C17">
-        <v>2.729594303057377</v>
+        <v>3.763837323502035</v>
       </c>
       <c r="D17">
-        <v>3.843841314315796</v>
+        <v>4.932558631896972</v>
       </c>
       <c r="E17">
-        <v>1.245204388860523</v>
+        <v>0.9701945935693133</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.75588083267212</v>
+        <v>47.96388416290283</v>
       </c>
       <c r="C18">
-        <v>1.006159780464045</v>
+        <v>1.179948054039878</v>
       </c>
       <c r="D18">
-        <v>4.875035858154297</v>
+        <v>5.33762092590332</v>
       </c>
       <c r="E18">
-        <v>0.6559090303220658</v>
+        <v>1.078626319944292</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>60.16822962760925</v>
+        <v>92.37193388938904</v>
       </c>
       <c r="C19">
-        <v>2.308404009245569</v>
+        <v>1.326996326447599</v>
       </c>
       <c r="D19">
-        <v>3.871352005004883</v>
+        <v>5.415383625030517</v>
       </c>
       <c r="E19">
-        <v>0.8809551183552704</v>
+        <v>0.689632916402502</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.59933133125305</v>
+        <v>21.161803150177</v>
       </c>
       <c r="C20">
-        <v>0.4492396271897218</v>
+        <v>0.660858466783348</v>
       </c>
       <c r="D20">
-        <v>3.994094038009643</v>
+        <v>5.267614555358887</v>
       </c>
       <c r="E20">
-        <v>1.109612791577968</v>
+        <v>0.4627084722244033</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.72980623245239</v>
+        <v>31.04089493751526</v>
       </c>
       <c r="C21">
-        <v>0.7142855599798785</v>
+        <v>1.756701754912515</v>
       </c>
       <c r="D21">
-        <v>2.414037799835205</v>
+        <v>3.658072519302368</v>
       </c>
       <c r="E21">
-        <v>1.4944175019926</v>
+        <v>0.9726243980501608</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>37.47348804473877</v>
+        <v>59.0103419303894</v>
       </c>
       <c r="C22">
-        <v>1.18610092393834</v>
+        <v>0.9197302574123564</v>
       </c>
       <c r="D22">
-        <v>3.793730211257935</v>
+        <v>4.43446979522705</v>
       </c>
       <c r="E22">
-        <v>1.582645468678728</v>
+        <v>1.471755926994752</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.09046640396118</v>
+        <v>23.48830213546753</v>
       </c>
       <c r="C23">
-        <v>0.44994912377849</v>
+        <v>3.040354919144171</v>
       </c>
       <c r="D23">
-        <v>3.027624416351318</v>
+        <v>4.766544008255005</v>
       </c>
       <c r="E23">
-        <v>0.3136854708448347</v>
+        <v>1.048542559337121</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.11971640586853</v>
+        <v>38.02448520660401</v>
       </c>
       <c r="C24">
-        <v>0.9492632702902423</v>
+        <v>1.214421629404276</v>
       </c>
       <c r="D24">
-        <v>4.549306201934814</v>
+        <v>5.49961552619934</v>
       </c>
       <c r="E24">
-        <v>0.5235744865463975</v>
+        <v>0.3435074830754308</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>52.60641841888427</v>
+        <v>80.29679660797119</v>
       </c>
       <c r="C25">
-        <v>0.4848181329116285</v>
+        <v>0.7683062620511731</v>
       </c>
       <c r="D25">
-        <v>3.852164936065674</v>
+        <v>5.079061079025268</v>
       </c>
       <c r="E25">
-        <v>1.141818339216772</v>
+        <v>0.08712781341941271</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.05146498680115</v>
+        <v>28.27520089149475</v>
       </c>
       <c r="C26">
-        <v>4.302768570918508</v>
+        <v>3.244515948305925</v>
       </c>
       <c r="D26">
-        <v>3.579052448272705</v>
+        <v>5.381661176681519</v>
       </c>
       <c r="E26">
-        <v>0.9338436992631786</v>
+        <v>0.5287168638398642</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>30.87753868103027</v>
+        <v>47.70895376205444</v>
       </c>
       <c r="C27">
-        <v>1.146390774952422</v>
+        <v>1.127105618706678</v>
       </c>
       <c r="D27">
-        <v>4.282715463638306</v>
+        <v>5.110214328765869</v>
       </c>
       <c r="E27">
-        <v>0.2627562729563203</v>
+        <v>0.8278226099069566</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>48.51917457580566</v>
+        <v>73.82085070610046</v>
       </c>
       <c r="C28">
-        <v>6.152737749831672</v>
+        <v>9.909595588422844</v>
       </c>
       <c r="D28">
-        <v>1.804499244689941</v>
+        <v>2.233039236068726</v>
       </c>
       <c r="E28">
-        <v>1.058978898709457</v>
+        <v>1.112201946293436</v>
       </c>
       <c r="F28">
         <v>30</v>
